--- a/reporting/100M/100M v6.xlsx
+++ b/reporting/100M/100M v6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCMDB\reporting\100M\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BA82C2-3541-4761-B8A8-71E7E8ABE345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A39B671-0B0D-433E-8D51-634534FC8825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -621,7 +621,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -868,6 +868,7 @@
     <xf numFmtId="4" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3851,10 +3852,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5121,6 +5122,16 @@
       <c r="E47" s="75"/>
       <c r="F47" s="76">
         <v>115861342.89000002</v>
+      </c>
+    </row>
+    <row r="49" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H49" s="86">
+        <f>G38+Таблица685[[#Totals],[План]]</f>
+        <v>44729</v>
+      </c>
+      <c r="I49" s="86">
+        <f>G38+Таблица685[[#Totals],[План]]+I42</f>
+        <v>44857</v>
       </c>
     </row>
   </sheetData>
